--- a/Accounts-Schedules/تدريب سامسونج و ايرالو 16-6 -2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج و ايرالو 16-6 -2025 تجمع.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="180">
   <si>
     <t>Hello team, </t>
   </si>
@@ -418,6 +418,36 @@
     <t>مرام شريف</t>
   </si>
   <si>
+    <t>Wave 44</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Arrival: 9:00 AM</t>
+  </si>
+  <si>
+    <t>Departure: 5:00 PM</t>
+  </si>
+  <si>
+    <t>Start date: 23/6/2025</t>
+  </si>
+  <si>
+    <t>End Date: 27/6/2025</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Below is the list of trainees scheduled for training at Samsung on Monday, June 16th, from 9 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
   <si>
@@ -500,6 +530,51 @@
   </si>
   <si>
     <t>ريم عبدالله</t>
+  </si>
+  <si>
+    <t>TWWID</t>
+  </si>
+  <si>
+    <t>Employee name</t>
+  </si>
+  <si>
+    <t>Shift - Start</t>
+  </si>
+  <si>
+    <t>Shift - End</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>• Arrival Time: 9:00 AM</t>
+  </si>
+  <si>
+    <t>• Departure Time: 6:00 PM</t>
+  </si>
+  <si>
+    <t>العاشر</t>
+  </si>
+  <si>
+    <t>• Start Date: 23/06/2025</t>
+  </si>
+  <si>
+    <t>العروبة/اللبيني</t>
+  </si>
+  <si>
+    <t>• End Date: 27/06/2025</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
   </si>
 </sst>
 </file>
@@ -515,7 +590,7 @@
     <numFmt numFmtId="179" formatCode="00000000000"/>
     <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +605,19 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -566,21 +654,22 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -729,7 +818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +828,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,13 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +1072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1011,6 +1118,88 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1030,9 +1219,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1043,13 +1230,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,34 +1297,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1240,137 +1418,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1385,123 +1563,177 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1832,305 +2064,305 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="24"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="16.25" spans="1:1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="58">
         <v>1111320239</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="58">
         <v>1017405291</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="58">
         <v>1118824119</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="58">
         <v>1098610613</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="58">
         <v>1023422783</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="58">
         <v>1276595561</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="58">
         <v>1107584541</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="58">
         <v>1028283440</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="58">
         <v>1022521573</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="58">
         <v>1552720827</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="58">
         <v>1204716664</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="58">
         <v>1229678836</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:3">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="58">
         <v>1118878401</v>
       </c>
     </row>
     <row r="22" ht="50.75" spans="1:3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="25.75" spans="1:3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="58">
         <v>1001596418</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="58">
         <v>1010537767</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="58">
         <v>1090305240</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="58">
         <v>1111773371</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="58">
         <v>1098013616</v>
       </c>
     </row>
     <row r="28" ht="38.25" spans="1:3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="62" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.75" spans="1:3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="62">
         <v>1288880146</v>
       </c>
     </row>
     <row r="30" ht="25.75" spans="1:3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="58">
         <v>1127188332</v>
       </c>
     </row>
     <row r="31" ht="38.25" spans="1:3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="23">
         <v>1066096898</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="50">
         <v>1146458829</v>
       </c>
     </row>
@@ -2156,519 +2388,520 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" ht="25.75" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="48" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="23">
         <v>1111320239</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" ht="50.75" spans="1:5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="23">
         <v>1017405291</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="23">
         <v>1118824119</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="23">
         <v>1098610613</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="23">
         <v>1023422783</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" ht="50.75" spans="1:5">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="23">
         <v>1276595561</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" ht="50.75" spans="1:5">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="23">
         <v>1107584541</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="23">
         <v>1028283440</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="23">
         <v>1022521573</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:5">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="23">
         <v>1552720827</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" ht="50.75" spans="1:5">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="23">
         <v>1204716664</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" ht="50.75" spans="1:5">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" ht="50.75" spans="1:5">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="23">
         <v>1229678836</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" ht="50.75" spans="1:5">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="23">
         <v>1118878401</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" ht="50.75" spans="1:5">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" ht="50.75" spans="1:5">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="23">
         <v>1001596418</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" ht="50.75" spans="1:5">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="23">
         <v>1010537767</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" ht="50.75" spans="1:5">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="23">
         <v>1090305240</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" ht="50.75" spans="1:5">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="23">
         <v>1111773371</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" ht="50.75" spans="1:5">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="23">
         <v>1098013616</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" ht="50.75" spans="1:5">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" ht="50.75" spans="1:5">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="23">
         <v>1288880146</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" ht="50.75" spans="1:5">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="23">
         <v>1127188332</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:5">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" ht="50.75" spans="1:5">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="23">
         <v>1066096898</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" ht="50.75" spans="1:5">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="50">
         <v>1146458829</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="32" t="s">
+    <row r="31" ht="15.25"/>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="35" t="s">
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="14">
         <v>1090272178</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2681,10 +2914,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="A3:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2694,6 +2927,7 @@
     <col min="5" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="21.5727272727273" customWidth="1"/>
     <col min="8" max="8" width="25.7090909090909" customWidth="1"/>
+    <col min="9" max="9" width="11.7272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:7">
@@ -2730,10 +2964,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2742,7 +2976,7 @@
       <c r="D3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2753,10 +2987,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="A4" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2776,10 +3010,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B5" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C5" s="5">
@@ -2788,7 +3022,7 @@
       <c r="D5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2799,10 +3033,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="A6" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B6" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C6" s="5">
@@ -2811,7 +3045,7 @@
       <c r="D6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2822,10 +3056,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B7" s="22">
+      <c r="A7" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B7" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C7" s="5">
@@ -2845,10 +3079,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B8" s="22">
+      <c r="A8" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B8" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C8" s="5">
@@ -2857,7 +3091,7 @@
       <c r="D8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2868,10 +3102,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B9" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C9" s="5">
@@ -2880,7 +3114,7 @@
       <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -2891,10 +3125,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B10" s="22">
+      <c r="A10" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B10" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2903,7 +3137,7 @@
       <c r="D10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2914,10 +3148,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B11" s="22">
+      <c r="A11" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C11" s="5">
@@ -2926,7 +3160,7 @@
       <c r="D11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2937,10 +3171,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B12" s="22">
+      <c r="A12" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B12" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C12" s="5">
@@ -2949,7 +3183,7 @@
       <c r="D12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2960,10 +3194,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="A13" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B13" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C13" s="5">
@@ -2972,7 +3206,7 @@
       <c r="D13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>106</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2983,10 +3217,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="A14" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B14" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C14" s="5">
@@ -2995,7 +3229,7 @@
       <c r="D14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3006,10 +3240,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B15" s="22">
+      <c r="A15" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B15" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3018,7 +3252,7 @@
       <c r="D15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -3029,10 +3263,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B16" s="22">
+      <c r="A16" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B16" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C16" s="5">
@@ -3052,10 +3286,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B17" s="22">
+      <c r="A17" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B17" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C17" s="5">
@@ -3064,7 +3298,7 @@
       <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -3075,10 +3309,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B18" s="22">
+      <c r="A18" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B18" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C18" s="5">
@@ -3087,7 +3321,7 @@
       <c r="D18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -3098,10 +3332,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B19" s="22">
+      <c r="A19" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B19" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C19" s="5">
@@ -3110,7 +3344,7 @@
       <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3121,10 +3355,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B20" s="22">
+      <c r="A20" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B20" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3133,7 +3367,7 @@
       <c r="D20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>114</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -3144,33 +3378,33 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B21" s="22">
+      <c r="A21" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B21" s="32">
         <v>0.708333333333333</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="2">
         <v>1090272178</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B22" s="22">
+      <c r="A22" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B22" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C22" s="5">
@@ -3179,7 +3413,7 @@
       <c r="D22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>116</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -3190,10 +3424,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B23" s="22">
+      <c r="A23" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B23" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C23" s="5">
@@ -3202,7 +3436,7 @@
       <c r="D23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="6" t="s">
         <v>118</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3213,10 +3447,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B24" s="22">
+      <c r="A24" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B24" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C24" s="5">
@@ -3236,10 +3470,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B25" s="22">
+      <c r="A25" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B25" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C25" s="5">
@@ -3248,7 +3482,7 @@
       <c r="D25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -3259,10 +3493,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B26" s="22">
+      <c r="A26" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B26" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C26" s="5">
@@ -3278,10 +3512,10 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B27" s="22">
+      <c r="A27" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B27" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C27" s="5">
@@ -3297,10 +3531,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B28" s="22">
+      <c r="A28" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B28" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C28" s="5">
@@ -3309,17 +3543,17 @@
       <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="33" t="s">
         <v>124</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B29" s="22">
+      <c r="A29" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B29" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C29" s="5">
@@ -3334,11 +3568,11 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="B30" s="22">
+    <row r="30" spans="1:7">
+      <c r="A30" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="B30" s="32">
         <v>0.708333333333333</v>
       </c>
       <c r="C30" s="5">
@@ -3352,81 +3586,600 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="4:8">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="4:8">
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="4:8">
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="4:8">
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="4:8">
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="4:8">
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="4:8">
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="4:8">
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="4:8">
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="4:8">
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+    </row>
+    <row r="32" ht="15.25"/>
+    <row r="33" ht="15.25" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="38">
+        <v>10299935</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F34" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="38">
+        <v>10334844</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F35" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="38">
+        <v>10334842</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F36" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="38">
+        <v>10334834</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F37" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="3:6">
+      <c r="C38" s="38">
+        <v>10334832</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F38" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="3:6">
+      <c r="C39" s="38">
+        <v>10334829</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F39" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="3:6">
+      <c r="C40" s="38">
+        <v>10334828</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F40" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="3:6">
+      <c r="C41" s="38">
+        <v>10334790</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F41" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="3:6">
+      <c r="C42" s="38">
+        <v>10334780</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F42" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="3:6">
+      <c r="C43" s="38">
+        <v>10334779</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F43" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="3:6">
+      <c r="C44" s="38">
+        <v>10334778</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F44" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="3:6">
+      <c r="C45" s="38">
+        <v>10334777</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F45" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="3:6">
+      <c r="C46" s="38">
+        <v>10334773</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F46" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="3:6">
+      <c r="C47" s="38">
+        <v>10334771</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F47" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="3:6">
+      <c r="C48" s="38">
+        <v>10334743</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F48" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="3:6">
+      <c r="C49" s="38">
+        <v>10334744</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F49" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="3:6">
+      <c r="C50" s="38">
+        <v>10334911</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F50" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="3:6">
+      <c r="C51" s="38">
+        <v>10334741</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F51" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="3:6">
+      <c r="C52" s="38">
+        <v>10334740</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F52" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="3:6">
+      <c r="C53" s="38">
+        <v>10334737</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F53" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="43">
+        <v>1111320239</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="43">
+        <v>1118824119</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="D60" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="43">
+        <v>1098610613</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="D61" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="43">
+        <v>1276595561</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="43">
+        <v>1552720827</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7">
+      <c r="D63" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="43">
+        <v>1204716664</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="D64" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G64" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="43">
+        <v>1001596418</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="D66" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" s="43">
+        <v>1010537767</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="D67" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="43">
+        <v>1090305240</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="D68" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="43">
+        <v>1111773371</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="D69" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="43">
+        <v>1098013616</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="43">
+        <v>1288880146</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="D71" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7">
+      <c r="D72" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="43">
+        <v>1146458829</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7">
+      <c r="D73" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="43">
+        <v>1090272178</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7">
+      <c r="D74" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74" s="43">
+        <v>1023422783</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="D75" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="43">
+        <v>1107584541</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7">
+      <c r="D76" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="43" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:G30" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A3:G30">
+    <sortState ref="A2:G30">
       <sortCondition ref="F2"/>
     </sortState>
     <extLst/>
@@ -3451,113 +4204,113 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="14" t="s">
-        <v>127</v>
+      <c r="A1" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="24"/>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="15" t="s">
-        <v>128</v>
+      <c r="A3" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="16.25" spans="1:1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="24"/>
     </row>
     <row r="5" ht="15.25" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="29">
         <v>1006487264</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:3">
-      <c r="A7" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="A7" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="29">
         <v>1005854438</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:3">
-      <c r="A8" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="A8" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="29">
         <v>1002902577</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="A9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="29">
         <v>1140356666</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="A10" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="29">
         <v>1274119194</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="A11" s="30"/>
+      <c r="B11" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="23">
         <v>1288086316</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="A12" s="30"/>
+      <c r="B12" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="23">
         <v>1550623084</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="A13" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="23">
         <v>1279771880</v>
       </c>
     </row>
@@ -3580,156 +4333,156 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="25.75" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" ht="50.75" spans="1:5">
-      <c r="A2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="22">
         <v>1006487264</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="22">
         <v>1005854438</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>141</v>
+      <c r="E3" s="23" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="22">
         <v>1002902577</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" ht="50.75" spans="1:5">
-      <c r="A5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="22">
         <v>1140356666</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>142</v>
+      <c r="E5" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
-      <c r="A6" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="22">
         <v>1274119194</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
-      <c r="A7" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="22">
         <v>1288086316</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="22">
         <v>1550623084</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" ht="50.75" spans="1:5">
-      <c r="A9" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="22">
         <v>1279771880</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>144</v>
+      <c r="E9" s="23" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3741,27 +4494,28 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="12.9090909090909"/>
+    <col min="4" max="4" width="9.54545454545454"/>
     <col min="5" max="5" width="17.5727272727273" customWidth="1"/>
     <col min="6" max="7" width="18.5727272727273" customWidth="1"/>
     <col min="8" max="9" width="17.7090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7">
+    <row r="1" customHeight="1" spans="5:7">
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3802,13 +4556,13 @@
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3824,14 +4578,14 @@
       <c r="D4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>148</v>
+      <c r="E4" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3848,7 +4602,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>58</v>
@@ -3870,14 +4624,14 @@
       <c r="D6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>150</v>
+      <c r="E6" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3893,8 +4647,8 @@
       <c r="D7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>151</v>
+      <c r="E7" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>56</v>
@@ -3916,8 +4670,8 @@
       <c r="D8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>152</v>
+      <c r="E8" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>56</v>
@@ -3939,8 +4693,8 @@
       <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>153</v>
+      <c r="E9" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>56</v>
@@ -3963,85 +4717,354 @@
         <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="15.25"/>
+    <row r="22" spans="4:10">
+      <c r="D22" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" ht="15.25" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="13">
+        <v>10334728</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1006487264</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="13">
+        <v>10334731</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1005854438</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="13">
+        <v>10334729</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1002902577</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="4:10">
+      <c r="D27" s="13">
+        <v>10334730</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="14">
+        <v>1274119194</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="4:10">
+      <c r="D28" s="13">
+        <v>10310370</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="14">
+        <v>1279771880</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9">
+      <c r="D31">
+        <v>10334728</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31">
+        <v>1006487264</v>
+      </c>
+      <c r="I31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9">
+      <c r="D32">
+        <v>10334731</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32">
+        <v>1005854438</v>
+      </c>
+      <c r="I32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="D33">
+        <v>10334729</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33">
+        <v>1002902577</v>
+      </c>
+      <c r="I33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="D34">
+        <v>10334730</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34">
+        <v>1274119194</v>
+      </c>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35">
+        <v>10310370</v>
+      </c>
+      <c r="E35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35">
+        <v>1279771880</v>
+      </c>
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="C3:J10">
     <sortCondition ref="F3"/>
   </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/تدريب سامسونج و ايرالو 16-6 -2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج و ايرالو 16-6 -2025 تجمع.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="182">
   <si>
     <t>Hello team, </t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>الرحاب</t>
+  </si>
+  <si>
+    <t>• Start Date: 30/06/2025</t>
+  </si>
+  <si>
+    <t>• End Date: 04/07/2025</t>
   </si>
 </sst>
 </file>
@@ -2916,7 +2922,7 @@
   <sheetPr/>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C34" sqref="C34:F53"/>
     </sheetView>
   </sheetViews>
@@ -4494,10 +4500,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:I35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5052,18 +5058,185 @@
         <v>150</v>
       </c>
     </row>
+    <row r="37" ht="15.25"/>
+    <row r="38" spans="4:10">
+      <c r="D38" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" ht="15.25" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="13">
+        <v>10334728</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1006487264</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="13">
+        <v>10334731</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1005854438</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="13">
+        <v>10334729</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="14">
+        <v>1002902577</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="4:10">
+      <c r="D43" s="13">
+        <v>10334730</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="14">
+        <v>1274119194</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="4:10">
+      <c r="D44" s="13">
+        <v>10310370</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1279771880</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="C3:J10">
     <sortCondition ref="F3"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G38:G39"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H38:H39"/>
     <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I38:I39"/>
     <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J38:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/تدريب سامسونج و ايرالو 16-6 -2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج و ايرالو 16-6 -2025 تجمع.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="185">
   <si>
     <t>Hello team, </t>
   </si>
@@ -446,6 +446,15 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Start date: 30/6/2025</t>
+  </si>
+  <si>
+    <t>End Date: 04/7/2025</t>
+  </si>
+  <si>
+    <t>Site: 5th Settlement</t>
   </si>
   <si>
     <t>Below is the list of trainees scheduled for training at Samsung on Monday, June 16th, from 9 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
@@ -596,7 +605,7 @@
     <numFmt numFmtId="179" formatCode="00000000000"/>
     <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +679,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.25"/>
+      <color rgb="FF313131"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1270,6 +1293,21 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
@@ -1287,21 +1325,6 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1424,137 +1447,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1679,12 +1702,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1700,13 +1744,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2091,262 +2135,262 @@
       <c r="A5" s="24"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="65" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="65">
         <v>1111320239</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="65">
         <v>1017405291</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="65">
         <v>1118824119</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="65">
         <v>1098610613</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="65">
         <v>1023422783</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="65">
         <v>1276595561</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="65">
         <v>1107584541</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="65">
         <v>1028283440</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="65">
         <v>1022521573</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="65">
         <v>1552720827</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="65">
         <v>1204716664</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="65" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="65">
         <v>1229678836</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="65">
         <v>1118878401</v>
       </c>
     </row>
     <row r="22" ht="50.75" spans="1:3">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="25.75" spans="1:3">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="65">
         <v>1001596418</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="65">
         <v>1010537767</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="65">
         <v>1090305240</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:3">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="65">
         <v>1111773371</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="65">
         <v>1098013616</v>
       </c>
     </row>
     <row r="28" ht="38.25" spans="1:3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.75" spans="1:3">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="69">
         <v>1288880146</v>
       </c>
     </row>
     <row r="30" ht="25.75" spans="1:3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="65">
         <v>1127188332</v>
       </c>
     </row>
     <row r="31" ht="38.25" spans="1:3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2354,7 +2398,7 @@
       <c r="A32" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="23">
@@ -2368,7 +2412,7 @@
       <c r="B33" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="57">
         <v>1146458829</v>
       </c>
     </row>
@@ -2394,26 +2438,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" ht="25.75" spans="1:5">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="55" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2843,7 +2887,7 @@
       </c>
     </row>
     <row r="28" ht="50.75" spans="1:5">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="56" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="23">
@@ -2863,7 +2907,7 @@
       <c r="A29" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="57">
         <v>1146458829</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -2878,24 +2922,24 @@
     </row>
     <row r="31" ht="15.25"/>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="14">
@@ -2920,10 +2964,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4181,6 +4225,315 @@
       </c>
       <c r="G76" s="43" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="81" ht="15.25" spans="4:7">
+      <c r="D81" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" ht="15.25" spans="1:7">
+      <c r="A82" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="47">
+        <v>10299935</v>
+      </c>
+      <c r="E82" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G82" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="83" ht="15.25" spans="1:7">
+      <c r="A83" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="47">
+        <v>10334844</v>
+      </c>
+      <c r="E83" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G83" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="84" ht="15.25" spans="1:7">
+      <c r="A84" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="47">
+        <v>10334842</v>
+      </c>
+      <c r="E84" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G84" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="85" ht="15.25" spans="1:7">
+      <c r="A85" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="47">
+        <v>10334834</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G85" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="86" ht="18.25" spans="1:7">
+      <c r="A86" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="47">
+        <v>10334832</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G86" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="87" ht="15.25" spans="4:7">
+      <c r="D87" s="47">
+        <v>10334829</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G87" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="88" ht="15.25" spans="4:7">
+      <c r="D88" s="47">
+        <v>10334828</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G88" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="89" ht="15.25" spans="4:7">
+      <c r="D89" s="47">
+        <v>10334790</v>
+      </c>
+      <c r="E89" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G89" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="90" ht="15.25" spans="4:7">
+      <c r="D90" s="47">
+        <v>10334780</v>
+      </c>
+      <c r="E90" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G90" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="91" ht="15.25" spans="4:7">
+      <c r="D91" s="47">
+        <v>10334779</v>
+      </c>
+      <c r="E91" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G91" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="92" ht="15.25" spans="4:7">
+      <c r="D92" s="47">
+        <v>10334778</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G92" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="93" ht="15.25" spans="4:7">
+      <c r="D93" s="47">
+        <v>10334777</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G93" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="94" ht="15.25" spans="4:7">
+      <c r="D94" s="47">
+        <v>10334773</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G94" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="95" ht="15.25" spans="4:7">
+      <c r="D95" s="47">
+        <v>10334771</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G95" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="96" ht="15.25" spans="4:7">
+      <c r="D96" s="47">
+        <v>10334743</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G96" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="97" ht="15.25" spans="4:7">
+      <c r="D97" s="47">
+        <v>10334744</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G97" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="98" ht="15.25" spans="4:7">
+      <c r="D98" s="47">
+        <v>10334911</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F98" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G98" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="99" ht="15.25" spans="4:7">
+      <c r="D99" s="47">
+        <v>10334741</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G99" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="100" ht="15.25" spans="4:7">
+      <c r="D100" s="47">
+        <v>10334740</v>
+      </c>
+      <c r="E100" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G100" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="101" ht="15.25" spans="4:7">
+      <c r="D101" s="47">
+        <v>10334737</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="G101" s="41">
+        <v>0.708333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4211,7 +4564,7 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
       <c r="A1" s="24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
@@ -4219,7 +4572,7 @@
     </row>
     <row r="3" ht="15" spans="1:1">
       <c r="A3" s="25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="16.25" spans="1:1">
@@ -4241,7 +4594,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="29">
         <v>1006487264</v>
@@ -4249,10 +4602,10 @@
     </row>
     <row r="7" ht="25.75" spans="1:3">
       <c r="A7" s="28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C7" s="29">
         <v>1005854438</v>
@@ -4260,10 +4613,10 @@
     </row>
     <row r="8" ht="38.25" spans="1:3">
       <c r="A8" s="28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C8" s="29">
         <v>1002902577</v>
@@ -4271,10 +4624,10 @@
     </row>
     <row r="9" ht="25.75" spans="1:3">
       <c r="A9" s="28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C9" s="29">
         <v>1140356666</v>
@@ -4282,10 +4635,10 @@
     </row>
     <row r="10" ht="25.75" spans="1:3">
       <c r="A10" s="28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C10" s="29">
         <v>1274119194</v>
@@ -4294,7 +4647,7 @@
     <row r="11" ht="25.75" spans="1:3">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C11" s="23">
         <v>1288086316</v>
@@ -4303,7 +4656,7 @@
     <row r="12" ht="25.75" spans="1:3">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C12" s="23">
         <v>1550623084</v>
@@ -4311,10 +4664,10 @@
     </row>
     <row r="13" ht="25.75" spans="1:3">
       <c r="A13" s="31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C13" s="23">
         <v>1279771880</v>
@@ -4357,7 +4710,7 @@
     </row>
     <row r="2" ht="50.75" spans="1:5">
       <c r="A2" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" s="22">
         <v>1006487264</v>
@@ -4374,7 +4727,7 @@
     </row>
     <row r="3" ht="50.75" spans="1:5">
       <c r="A3" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B3" s="22">
         <v>1005854438</v>
@@ -4386,12 +4739,12 @@
         <v>66</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
       <c r="A4" s="21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B4" s="22">
         <v>1002902577</v>
@@ -4408,7 +4761,7 @@
     </row>
     <row r="5" ht="50.75" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B5" s="22">
         <v>1140356666</v>
@@ -4420,12 +4773,12 @@
         <v>71</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B6" s="22">
         <v>1274119194</v>
@@ -4442,7 +4795,7 @@
     </row>
     <row r="7" ht="50.75" spans="1:5">
       <c r="A7" s="21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B7" s="22">
         <v>1288086316</v>
@@ -4459,13 +4812,13 @@
     </row>
     <row r="8" ht="25.75" spans="1:5">
       <c r="A8" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B8" s="22">
         <v>1550623084</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>69</v>
@@ -4476,7 +4829,7 @@
     </row>
     <row r="9" ht="50.75" spans="1:5">
       <c r="A9" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B9" s="22">
         <v>1279771880</v>
@@ -4488,7 +4841,7 @@
         <v>58</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4502,7 +4855,7 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D40" sqref="D40:G44"/>
     </sheetView>
   </sheetViews>
@@ -4517,11 +4870,11 @@
   <sheetData>
     <row r="1" customHeight="1" spans="5:7">
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4562,13 +4915,13 @@
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4585,13 +4938,13 @@
         <v>94</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4608,7 +4961,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>58</v>
@@ -4631,13 +4984,13 @@
         <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4654,7 +5007,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>56</v>
@@ -4677,7 +5030,7 @@
         <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>56</v>
@@ -4700,7 +5053,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>56</v>
@@ -4723,7 +5076,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4801,30 +5154,30 @@
     <row r="21" ht="15.25"/>
     <row r="22" spans="4:10">
       <c r="D22" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
@@ -4836,13 +5189,13 @@
     </row>
     <row r="24" ht="15.25" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D24" s="13">
         <v>10334728</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F24" s="15">
         <v>0.375</v>
@@ -4857,18 +5210,18 @@
         <v>56</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D25" s="13">
         <v>10334731</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F25" s="15">
         <v>0.375</v>
@@ -4883,18 +5236,18 @@
         <v>66</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D26" s="13">
         <v>10334729</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F26" s="15">
         <v>0.375</v>
@@ -4909,7 +5262,7 @@
         <v>56</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="4:10">
@@ -4917,7 +5270,7 @@
         <v>10334730</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F27" s="15">
         <v>0.375</v>
@@ -4940,7 +5293,7 @@
         <v>10310370</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F28" s="15">
         <v>0.375</v>
@@ -4952,10 +5305,10 @@
         <v>1279771880</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="4:9">
@@ -4969,13 +5322,13 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H31">
         <v>1006487264</v>
       </c>
       <c r="I31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="4:9">
@@ -4983,19 +5336,19 @@
         <v>10334731</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
         <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H32">
         <v>1005854438</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="4:9">
@@ -5009,13 +5362,13 @@
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H33">
         <v>1002902577</v>
       </c>
       <c r="I33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="4:9">
@@ -5029,13 +5382,13 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H34">
         <v>1274119194</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="4:9">
@@ -5043,48 +5396,48 @@
         <v>10310370</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H35">
         <v>1279771880</v>
       </c>
       <c r="I35" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" ht="15.25"/>
     <row r="38" spans="4:10">
       <c r="D38" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="12"/>
@@ -5096,13 +5449,13 @@
     </row>
     <row r="40" ht="15.25" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D40" s="13">
         <v>10334728</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F40" s="15">
         <v>0.375</v>
@@ -5117,18 +5470,18 @@
         <v>56</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D41" s="13">
         <v>10334731</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F41" s="15">
         <v>0.375</v>
@@ -5143,18 +5496,18 @@
         <v>66</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D42" s="13">
         <v>10334729</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F42" s="15">
         <v>0.375</v>
@@ -5169,7 +5522,7 @@
         <v>56</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="4:10">
@@ -5177,7 +5530,7 @@
         <v>10334730</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F43" s="15">
         <v>0.375</v>
@@ -5200,7 +5553,7 @@
         <v>10310370</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F44" s="15">
         <v>0.375</v>
@@ -5212,10 +5565,10 @@
         <v>1279771880</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/تدريب سامسونج و ايرالو 16-6 -2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج و ايرالو 16-6 -2025 تجمع.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="189">
   <si>
     <t>Hello team, </t>
   </si>
@@ -457,6 +457,12 @@
     <t>Site: 5th Settlement</t>
   </si>
   <si>
+    <t>Start date: 07/7/2025</t>
+  </si>
+  <si>
+    <t>End Date: 11/7/2025</t>
+  </si>
+  <si>
     <t>Below is the list of trainees scheduled for training at Samsung on Monday, June 16th, from 9 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
   <si>
@@ -590,6 +596,12 @@
   </si>
   <si>
     <t>• End Date: 04/07/2025</t>
+  </si>
+  <si>
+    <t>• Start Date: 07/07/2025</t>
+  </si>
+  <si>
+    <t>• End Date: 11/07/2025</t>
   </si>
 </sst>
 </file>
@@ -605,7 +617,7 @@
     <numFmt numFmtId="179" formatCode="00000000000"/>
     <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +644,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1447,137 +1466,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1618,52 +1637,53 @@
     <xf numFmtId="20" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1672,22 +1692,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1696,58 +1716,73 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1765,10 +1800,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1777,13 +1812,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2114,305 +2149,305 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="24"/>
+      <c r="A2" s="25"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="16.25" spans="1:1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="73" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="73">
         <v>1111320239</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="73">
         <v>1017405291</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="73">
         <v>1118824119</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="73">
         <v>1098610613</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="73">
         <v>1023422783</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="73">
         <v>1276595561</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="73">
         <v>1107584541</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="73">
         <v>1028283440</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:3">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="73">
         <v>1022521573</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="73">
         <v>1552720827</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="73">
         <v>1204716664</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="73" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="73">
         <v>1229678836</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:3">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="73">
         <v>1118878401</v>
       </c>
     </row>
     <row r="22" ht="50.75" spans="1:3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="73" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="25.75" spans="1:3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="72"/>
+      <c r="B23" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="73">
         <v>1001596418</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="73">
         <v>1010537767</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="73">
         <v>1090305240</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:3">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="73">
         <v>1111773371</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="73">
         <v>1098013616</v>
       </c>
     </row>
     <row r="28" ht="38.25" spans="1:3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="77" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.75" spans="1:3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="77">
         <v>1288880146</v>
       </c>
     </row>
     <row r="30" ht="25.75" spans="1:3">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="73">
         <v>1127188332</v>
       </c>
     </row>
     <row r="31" ht="38.25" spans="1:3">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="24">
         <v>1066096898</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="65">
         <v>1146458829</v>
       </c>
     </row>
@@ -2438,508 +2473,508 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" ht="25.75" spans="1:5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="63" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="24">
         <v>1111320239</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" ht="50.75" spans="1:5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="24">
         <v>1017405291</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="24">
         <v>1118824119</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="24">
         <v>1098610613</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="24">
         <v>1023422783</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" ht="50.75" spans="1:5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="24">
         <v>1276595561</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" ht="50.75" spans="1:5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="24">
         <v>1107584541</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="24">
         <v>1028283440</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="24">
         <v>1022521573</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="24">
         <v>1552720827</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" ht="50.75" spans="1:5">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="24">
         <v>1204716664</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" ht="50.75" spans="1:5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" ht="50.75" spans="1:5">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="24">
         <v>1229678836</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" ht="50.75" spans="1:5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="24">
         <v>1118878401</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" ht="50.75" spans="1:5">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" ht="50.75" spans="1:5">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="24">
         <v>1001596418</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" ht="50.75" spans="1:5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="24">
         <v>1010537767</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" ht="50.75" spans="1:5">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="24">
         <v>1090305240</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" ht="50.75" spans="1:5">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="24">
         <v>1111773371</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" ht="50.75" spans="1:5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="24">
         <v>1098013616</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" ht="50.75" spans="1:5">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" ht="50.75" spans="1:5">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="24">
         <v>1288880146</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" ht="50.75" spans="1:5">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="24">
         <v>1127188332</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:5">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" ht="50.75" spans="1:5">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="24">
         <v>1066096898</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" ht="50.75" spans="1:5">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="65">
         <v>1146458829</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" ht="15.25"/>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="68" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="69" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="14">
@@ -2964,10 +2999,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82:G101"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -3014,10 +3049,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="32">
+      <c r="A3" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3037,10 +3072,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B4" s="32">
+      <c r="A4" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3060,10 +3095,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B5" s="32">
+      <c r="A5" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B5" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C5" s="5">
@@ -3083,10 +3118,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B6" s="32">
+      <c r="A6" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B6" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C6" s="5">
@@ -3106,10 +3141,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="A7" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B7" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C7" s="5">
@@ -3129,10 +3164,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B8" s="32">
+      <c r="A8" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B8" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C8" s="5">
@@ -3152,10 +3187,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B9" s="32">
+      <c r="A9" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B9" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C9" s="5">
@@ -3175,10 +3210,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B10" s="32">
+      <c r="A10" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B10" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3198,10 +3233,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B11" s="32">
+      <c r="A11" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C11" s="5">
@@ -3221,10 +3256,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B12" s="32">
+      <c r="A12" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B12" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C12" s="5">
@@ -3244,10 +3279,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B13" s="32">
+      <c r="A13" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B13" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C13" s="5">
@@ -3267,10 +3302,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B14" s="32">
+      <c r="A14" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B14" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C14" s="5">
@@ -3290,10 +3325,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B15" s="32">
+      <c r="A15" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B15" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3313,10 +3348,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B16" s="32">
+      <c r="A16" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B16" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C16" s="5">
@@ -3336,10 +3371,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B17" s="32">
+      <c r="A17" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B17" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C17" s="5">
@@ -3359,10 +3394,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B18" s="32">
+      <c r="A18" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B18" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C18" s="5">
@@ -3382,10 +3417,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B19" s="32">
+      <c r="A19" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B19" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C19" s="5">
@@ -3405,10 +3440,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B20" s="32">
+      <c r="A20" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B20" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3428,10 +3463,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B21" s="32">
+      <c r="A21" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B21" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C21" s="2">
@@ -3451,10 +3486,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B22" s="32">
+      <c r="A22" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B22" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C22" s="5">
@@ -3474,10 +3509,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B23" s="32">
+      <c r="A23" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B23" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C23" s="5">
@@ -3497,10 +3532,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B24" s="32">
+      <c r="A24" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B24" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C24" s="5">
@@ -3520,10 +3555,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B25" s="32">
+      <c r="A25" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B25" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C25" s="5">
@@ -3543,10 +3578,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B26" s="32">
+      <c r="A26" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B26" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C26" s="5">
@@ -3562,10 +3597,10 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B27" s="32">
+      <c r="A27" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B27" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C27" s="5">
@@ -3581,10 +3616,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B28" s="32">
+      <c r="A28" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B28" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C28" s="5">
@@ -3593,17 +3628,17 @@
       <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="34" t="s">
         <v>124</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B29" s="32">
+      <c r="A29" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B29" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C29" s="5">
@@ -3619,10 +3654,10 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="B30" s="32">
+      <c r="A30" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B30" s="33">
         <v>0.708333333333333</v>
       </c>
       <c r="C30" s="5">
@@ -3642,16 +3677,16 @@
       <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="38" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3659,16 +3694,16 @@
       <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="39">
         <v>10299935</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F34" s="41">
+      <c r="E34" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F34" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
@@ -3676,16 +3711,16 @@
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="39">
         <v>10334844</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F35" s="41">
+      <c r="E35" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F35" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
@@ -3693,16 +3728,16 @@
       <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="39">
         <v>10334842</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F36" s="41">
+      <c r="E36" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F36" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
@@ -3710,829 +3745,1140 @@
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="39">
         <v>10334834</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F37" s="41">
+      <c r="E37" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F37" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:6">
-      <c r="C38" s="38">
+      <c r="C38" s="39">
         <v>10334832</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F38" s="41">
+      <c r="E38" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F38" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:6">
-      <c r="C39" s="38">
+      <c r="C39" s="39">
         <v>10334829</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F39" s="41">
+      <c r="E39" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F39" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="40" ht="15.25" spans="3:6">
-      <c r="C40" s="38">
+      <c r="C40" s="39">
         <v>10334828</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F40" s="41">
+      <c r="E40" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F40" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="3:6">
-      <c r="C41" s="38">
+      <c r="C41" s="39">
         <v>10334790</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F41" s="41">
+      <c r="E41" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F41" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="3:6">
-      <c r="C42" s="38">
+      <c r="C42" s="39">
         <v>10334780</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F42" s="41">
+      <c r="E42" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F42" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="3:6">
-      <c r="C43" s="38">
+      <c r="C43" s="39">
         <v>10334779</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F43" s="41">
+      <c r="E43" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F43" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="3:6">
-      <c r="C44" s="38">
+      <c r="C44" s="39">
         <v>10334778</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F44" s="41">
+      <c r="E44" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F44" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="3:6">
-      <c r="C45" s="38">
+      <c r="C45" s="39">
         <v>10334777</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F45" s="41">
+      <c r="E45" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F45" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="3:6">
-      <c r="C46" s="38">
+      <c r="C46" s="39">
         <v>10334773</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F46" s="41">
+      <c r="E46" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F46" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="3:6">
-      <c r="C47" s="38">
+      <c r="C47" s="39">
         <v>10334771</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F47" s="41">
+      <c r="E47" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F47" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="48" ht="15.25" spans="3:6">
-      <c r="C48" s="38">
+      <c r="C48" s="39">
         <v>10334743</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F48" s="41">
+      <c r="E48" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F48" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="3:6">
-      <c r="C49" s="38">
+      <c r="C49" s="39">
         <v>10334744</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F49" s="41">
+      <c r="E49" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F49" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="50" ht="15.25" spans="3:6">
-      <c r="C50" s="38">
+      <c r="C50" s="39">
         <v>10334911</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F50" s="41">
+      <c r="E50" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F50" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="51" ht="15.25" spans="3:6">
-      <c r="C51" s="38">
+      <c r="C51" s="39">
         <v>10334741</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F51" s="41">
+      <c r="E51" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F51" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="52" ht="15.25" spans="3:6">
-      <c r="C52" s="38">
+      <c r="C52" s="39">
         <v>10334740</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F52" s="41">
+      <c r="E52" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F52" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="53" ht="15.25" spans="3:6">
-      <c r="C53" s="38">
+      <c r="C53" s="39">
         <v>10334737</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="F53" s="41">
+      <c r="E53" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="F53" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="57" spans="4:7">
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="43" t="s">
+      <c r="G57" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="4:7">
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G58" s="43">
+      <c r="G58" s="44">
         <v>1111320239</v>
       </c>
     </row>
     <row r="59" spans="4:7">
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="43" t="s">
+      <c r="F59" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G59" s="43">
+      <c r="G59" s="44">
         <v>1118824119</v>
       </c>
     </row>
     <row r="60" spans="4:7">
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="43">
+      <c r="G60" s="44">
         <v>1098610613</v>
       </c>
     </row>
     <row r="61" spans="4:7">
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G61" s="43">
+      <c r="G61" s="44">
         <v>1276595561</v>
       </c>
     </row>
     <row r="62" spans="4:7">
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="43" t="s">
+      <c r="E62" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="43">
+      <c r="G62" s="44">
         <v>1552720827</v>
       </c>
     </row>
     <row r="63" spans="4:7">
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="G63" s="43">
+      <c r="G63" s="44">
         <v>1204716664</v>
       </c>
     </row>
     <row r="64" spans="4:7">
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="44" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="4:7">
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="44">
         <v>1001596418</v>
       </c>
     </row>
     <row r="66" spans="4:7">
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="44">
         <v>1010537767</v>
       </c>
     </row>
     <row r="67" spans="4:7">
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="G67" s="43">
+      <c r="G67" s="44">
         <v>1090305240</v>
       </c>
     </row>
     <row r="68" spans="4:7">
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="44">
         <v>1111773371</v>
       </c>
     </row>
     <row r="69" spans="4:7">
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="44">
         <v>1098013616</v>
       </c>
     </row>
     <row r="70" spans="4:7">
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="G70" s="43">
+      <c r="G70" s="44">
         <v>1288880146</v>
       </c>
     </row>
     <row r="71" spans="4:7">
-      <c r="D71" s="43" t="s">
+      <c r="D71" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="43" t="s">
+      <c r="F71" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="G71" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="72" spans="4:7">
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F72" s="43" t="s">
+      <c r="F72" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="43">
+      <c r="G72" s="44">
         <v>1146458829</v>
       </c>
     </row>
     <row r="73" spans="4:7">
-      <c r="D73" s="43" t="s">
+      <c r="D73" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="43">
+      <c r="G73" s="44">
         <v>1090272178</v>
       </c>
     </row>
     <row r="74" spans="4:7">
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E74" s="43" t="s">
+      <c r="E74" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="43" t="s">
+      <c r="F74" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G74" s="43">
+      <c r="G74" s="44">
         <v>1023422783</v>
       </c>
     </row>
     <row r="75" spans="4:7">
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="43" t="s">
+      <c r="F75" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="G75" s="43">
+      <c r="G75" s="44">
         <v>1107584541</v>
       </c>
     </row>
     <row r="76" spans="4:7">
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="43" t="s">
+      <c r="F76" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="G76" s="43" t="s">
+      <c r="G76" s="44" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="80" ht="15.25"/>
     <row r="81" ht="15.25" spans="4:7">
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E81" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G81" s="37" t="s">
+      <c r="G81" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="82" ht="15.25" spans="1:7">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D82" s="47">
+      <c r="D82" s="48">
         <v>10299935</v>
       </c>
-      <c r="E82" s="48" t="s">
+      <c r="E82" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F82" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G82" s="41">
+      <c r="F82" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G82" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="83" ht="15.25" spans="1:7">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="47">
+      <c r="D83" s="48">
         <v>10334844</v>
       </c>
-      <c r="E83" s="48" t="s">
+      <c r="E83" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G83" s="41">
+      <c r="F83" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G83" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="84" ht="15.25" spans="1:7">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="47">
+      <c r="D84" s="48">
         <v>10334842</v>
       </c>
-      <c r="E84" s="48" t="s">
+      <c r="E84" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G84" s="41">
+      <c r="F84" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G84" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="85" ht="15.25" spans="1:7">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="47">
+      <c r="D85" s="48">
         <v>10334834</v>
       </c>
-      <c r="E85" s="48" t="s">
+      <c r="E85" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G85" s="41">
+      <c r="F85" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G85" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="86" ht="18.25" spans="1:7">
-      <c r="A86" s="50" t="s">
+      <c r="A86" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="47">
+      <c r="D86" s="48">
         <v>10334832</v>
       </c>
-      <c r="E86" s="48" t="s">
+      <c r="E86" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G86" s="41">
+      <c r="F86" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G86" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="87" ht="15.25" spans="4:7">
-      <c r="D87" s="47">
+      <c r="D87" s="48">
         <v>10334829</v>
       </c>
-      <c r="E87" s="48" t="s">
+      <c r="E87" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G87" s="41">
+      <c r="F87" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G87" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="88" ht="15.25" spans="4:7">
-      <c r="D88" s="47">
+      <c r="D88" s="48">
         <v>10334828</v>
       </c>
-      <c r="E88" s="48" t="s">
+      <c r="E88" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F88" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G88" s="41">
+      <c r="F88" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G88" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="89" ht="15.25" spans="4:7">
-      <c r="D89" s="47">
+      <c r="D89" s="48">
         <v>10334790</v>
       </c>
-      <c r="E89" s="48" t="s">
+      <c r="E89" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F89" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G89" s="41">
+      <c r="F89" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G89" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="90" ht="15.25" spans="4:7">
-      <c r="D90" s="47">
+      <c r="D90" s="48">
         <v>10334780</v>
       </c>
-      <c r="E90" s="48" t="s">
+      <c r="E90" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F90" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G90" s="41">
+      <c r="F90" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G90" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="91" ht="15.25" spans="4:7">
-      <c r="D91" s="47">
+      <c r="D91" s="48">
         <v>10334779</v>
       </c>
-      <c r="E91" s="48" t="s">
+      <c r="E91" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F91" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G91" s="41">
+      <c r="F91" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G91" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="92" ht="15.25" spans="4:7">
-      <c r="D92" s="47">
+      <c r="D92" s="48">
         <v>10334778</v>
       </c>
-      <c r="E92" s="48" t="s">
+      <c r="E92" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F92" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G92" s="41">
+      <c r="F92" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G92" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="93" ht="15.25" spans="4:7">
-      <c r="D93" s="47">
+      <c r="D93" s="48">
         <v>10334777</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G93" s="41">
+      <c r="F93" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G93" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="94" ht="15.25" spans="4:7">
-      <c r="D94" s="47">
+      <c r="D94" s="48">
         <v>10334773</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F94" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G94" s="41">
+      <c r="F94" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G94" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="95" ht="15.25" spans="4:7">
-      <c r="D95" s="47">
+      <c r="D95" s="48">
         <v>10334771</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F95" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G95" s="41">
+      <c r="F95" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G95" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="96" ht="15.25" spans="4:7">
-      <c r="D96" s="47">
+      <c r="D96" s="48">
         <v>10334743</v>
       </c>
-      <c r="E96" s="48" t="s">
+      <c r="E96" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F96" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G96" s="41">
+      <c r="F96" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G96" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="97" ht="15.25" spans="4:7">
-      <c r="D97" s="47">
+      <c r="D97" s="48">
         <v>10334744</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F97" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G97" s="41">
+      <c r="F97" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G97" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="98" ht="15.25" spans="4:7">
-      <c r="D98" s="47">
+      <c r="D98" s="48">
         <v>10334911</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="E98" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G98" s="41">
+      <c r="F98" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G98" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="99" ht="15.25" spans="4:7">
-      <c r="D99" s="47">
+      <c r="D99" s="48">
         <v>10334741</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G99" s="41">
+      <c r="F99" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G99" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="100" ht="15.25" spans="4:7">
-      <c r="D100" s="47">
+      <c r="D100" s="48">
         <v>10334740</v>
       </c>
-      <c r="E100" s="48" t="s">
+      <c r="E100" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F100" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G100" s="41">
+      <c r="F100" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G100" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="101" ht="15.25" spans="4:7">
-      <c r="D101" s="47">
+      <c r="D101" s="48">
         <v>10334737</v>
       </c>
-      <c r="E101" s="48" t="s">
+      <c r="E101" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="G101" s="41">
+      <c r="F101" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G101" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="103" ht="15.25"/>
+    <row r="104" ht="15.25" spans="4:7">
+      <c r="D104" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" ht="15.25" spans="1:7">
+      <c r="A105" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="55">
+        <v>10299935</v>
+      </c>
+      <c r="E105" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G105" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="106" ht="15.25" spans="1:7">
+      <c r="A106" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="55">
+        <v>10334844</v>
+      </c>
+      <c r="E106" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G106" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="107" ht="15.25" spans="1:7">
+      <c r="A107" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="55">
+        <v>10334842</v>
+      </c>
+      <c r="E107" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G107" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="108" ht="15.25" spans="1:7">
+      <c r="A108" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="55">
+        <v>10334834</v>
+      </c>
+      <c r="E108" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G108" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="109" ht="18.25" spans="1:7">
+      <c r="A109" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="55">
+        <v>10334832</v>
+      </c>
+      <c r="E109" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G109" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="110" ht="15.25" spans="4:7">
+      <c r="D110" s="55">
+        <v>10334829</v>
+      </c>
+      <c r="E110" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G110" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="111" ht="15.25" spans="4:7">
+      <c r="D111" s="55">
+        <v>10334828</v>
+      </c>
+      <c r="E111" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G111" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="112" ht="15.25" spans="4:7">
+      <c r="D112" s="55">
+        <v>10334790</v>
+      </c>
+      <c r="E112" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G112" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="113" ht="15.25" spans="4:7">
+      <c r="D113" s="55">
+        <v>10334780</v>
+      </c>
+      <c r="E113" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G113" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="114" ht="15.25" spans="4:7">
+      <c r="D114" s="55">
+        <v>10334779</v>
+      </c>
+      <c r="E114" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G114" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="115" ht="15.25" spans="4:7">
+      <c r="D115" s="55">
+        <v>10334778</v>
+      </c>
+      <c r="E115" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F115" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G115" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="116" ht="15.25" spans="4:7">
+      <c r="D116" s="55">
+        <v>10334777</v>
+      </c>
+      <c r="E116" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G116" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="117" ht="15.25" spans="4:7">
+      <c r="D117" s="55">
+        <v>10334773</v>
+      </c>
+      <c r="E117" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G117" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="118" ht="15.25" spans="4:7">
+      <c r="D118" s="55">
+        <v>10334771</v>
+      </c>
+      <c r="E118" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G118" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="119" ht="15.25" spans="4:7">
+      <c r="D119" s="55">
+        <v>10334743</v>
+      </c>
+      <c r="E119" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G119" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="120" ht="15.25" spans="4:7">
+      <c r="D120" s="55">
+        <v>10334744</v>
+      </c>
+      <c r="E120" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F120" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G120" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="121" ht="15.25" spans="4:7">
+      <c r="D121" s="55">
+        <v>10334911</v>
+      </c>
+      <c r="E121" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="F121" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G121" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="122" ht="15.25" spans="4:7">
+      <c r="D122" s="55">
+        <v>10334741</v>
+      </c>
+      <c r="E122" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G122" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="123" ht="15.25" spans="4:7">
+      <c r="D123" s="55">
+        <v>10334740</v>
+      </c>
+      <c r="E123" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G123" s="42">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="124" ht="15.25" spans="4:7">
+      <c r="D124" s="55">
+        <v>10334737</v>
+      </c>
+      <c r="E124" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="G124" s="42">
         <v>0.708333333333333</v>
       </c>
     </row>
@@ -4563,113 +4909,113 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="24" t="s">
-        <v>140</v>
+      <c r="A1" s="25" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="24"/>
+      <c r="A2" s="25"/>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="25" t="s">
-        <v>141</v>
+      <c r="A3" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="16.25" spans="1:1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
     </row>
     <row r="5" ht="15.25" spans="1:3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="30">
         <v>1006487264</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:3">
-      <c r="A7" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="A7" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="30">
         <v>1005854438</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:3">
-      <c r="A8" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="A8" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="30">
         <v>1002902577</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1140356666</v>
+      </c>
+    </row>
+    <row r="10" ht="25.75" spans="1:3">
+      <c r="A10" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1140356666</v>
-      </c>
-    </row>
-    <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="B10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="30">
         <v>1274119194</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="A11" s="31"/>
+      <c r="B11" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="24">
         <v>1288086316</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="A12" s="31"/>
+      <c r="B12" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="24">
         <v>1550623084</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="A13" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="24">
         <v>1279771880</v>
       </c>
     </row>
@@ -4692,156 +5038,156 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="25.75" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" ht="50.75" spans="1:5">
-      <c r="A2" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="22">
+      <c r="A2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="23">
         <v>1006487264</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
-      <c r="A3" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="23">
         <v>1005854438</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>154</v>
+      <c r="E3" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
-      <c r="A4" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="A4" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="23">
         <v>1002902577</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" ht="50.75" spans="1:5">
-      <c r="A5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="23">
         <v>1140356666</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" ht="50.75" spans="1:5">
+      <c r="A6" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1274119194</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" ht="50.75" spans="1:5">
+      <c r="A7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1288086316</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" ht="25.75" spans="1:5">
+      <c r="A8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1550623084</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="50.75" spans="1:5">
+      <c r="A9" s="22" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" ht="50.75" spans="1:5">
-      <c r="A6" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1274119194</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B9" s="23">
+        <v>1279771880</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" ht="50.75" spans="1:5">
-      <c r="A7" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="22">
-        <v>1288086316</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" ht="25.75" spans="1:5">
-      <c r="A8" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="22">
-        <v>1550623084</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" ht="50.75" spans="1:5">
-      <c r="A9" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="22">
-        <v>1279771880</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>157</v>
+      <c r="E9" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4853,10 +5199,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:G44"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4870,11 +5216,11 @@
   <sheetData>
     <row r="1" customHeight="1" spans="5:7">
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4915,13 +5261,13 @@
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4938,13 +5284,13 @@
         <v>94</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4961,7 +5307,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>58</v>
@@ -4984,13 +5330,13 @@
         <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5007,7 +5353,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>56</v>
@@ -5030,7 +5376,7 @@
         <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>56</v>
@@ -5053,7 +5399,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>56</v>
@@ -5076,7 +5422,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5154,30 +5500,30 @@
     <row r="21" ht="15.25"/>
     <row r="22" spans="4:10">
       <c r="D22" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
@@ -5189,13 +5535,13 @@
     </row>
     <row r="24" ht="15.25" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D24" s="13">
         <v>10334728</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F24" s="15">
         <v>0.375</v>
@@ -5206,22 +5552,22 @@
       <c r="H24" s="14">
         <v>1006487264</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="16" t="s">
-        <v>177</v>
+      <c r="J24" s="17" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D25" s="13">
         <v>10334731</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="15">
         <v>0.375</v>
@@ -5232,22 +5578,22 @@
       <c r="H25" s="14">
         <v>1005854438</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>179</v>
+      <c r="J25" s="17" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D26" s="13">
         <v>10334729</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F26" s="15">
         <v>0.375</v>
@@ -5258,11 +5604,11 @@
       <c r="H26" s="14">
         <v>1002902577</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="17" t="s">
-        <v>177</v>
+      <c r="J26" s="18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="4:10">
@@ -5270,7 +5616,7 @@
         <v>10334730</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F27" s="15">
         <v>0.375</v>
@@ -5281,10 +5627,10 @@
       <c r="H27" s="14">
         <v>1274119194</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5293,7 +5639,7 @@
         <v>10310370</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F28" s="15">
         <v>0.375</v>
@@ -5304,11 +5650,11 @@
       <c r="H28" s="14">
         <v>1279771880</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>182</v>
+      <c r="I28" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="4:9">
@@ -5322,13 +5668,13 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H31">
         <v>1006487264</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="4:9">
@@ -5336,19 +5682,19 @@
         <v>10334731</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
         <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H32">
         <v>1005854438</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="4:9">
@@ -5362,13 +5708,13 @@
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H33">
         <v>1002902577</v>
       </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="4:9">
@@ -5382,13 +5728,13 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H34">
         <v>1274119194</v>
       </c>
       <c r="I34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="4:9">
@@ -5396,48 +5742,48 @@
         <v>10310370</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H35">
         <v>1279771880</v>
       </c>
       <c r="I35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" ht="15.25"/>
     <row r="38" spans="4:10">
       <c r="D38" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="12"/>
@@ -5449,13 +5795,13 @@
     </row>
     <row r="40" ht="15.25" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D40" s="13">
         <v>10334728</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F40" s="15">
         <v>0.375</v>
@@ -5466,22 +5812,22 @@
       <c r="H40" s="14">
         <v>1006487264</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J40" s="16" t="s">
-        <v>177</v>
+      <c r="J40" s="17" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D41" s="13">
         <v>10334731</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F41" s="15">
         <v>0.375</v>
@@ -5492,22 +5838,22 @@
       <c r="H41" s="14">
         <v>1005854438</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J41" s="16" t="s">
-        <v>179</v>
+      <c r="J41" s="17" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D42" s="13">
         <v>10334729</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F42" s="15">
         <v>0.375</v>
@@ -5518,11 +5864,11 @@
       <c r="H42" s="14">
         <v>1002902577</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="17" t="s">
-        <v>177</v>
+      <c r="J42" s="18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="4:10">
@@ -5530,7 +5876,7 @@
         <v>10334730</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F43" s="15">
         <v>0.375</v>
@@ -5541,10 +5887,10 @@
       <c r="H43" s="14">
         <v>1274119194</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5553,7 +5899,7 @@
         <v>10310370</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F44" s="15">
         <v>0.375</v>
@@ -5564,28 +5910,155 @@
       <c r="H44" s="14">
         <v>1279771880</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25"/>
+    <row r="51" spans="4:8">
+      <c r="D51" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" ht="16.75" spans="1:8">
+      <c r="A52" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" ht="16.75" spans="1:8">
+      <c r="A53" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="13">
+        <v>10334728</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" ht="16.75" spans="1:8">
+      <c r="A54" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="13">
+        <v>10334731</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>182</v>
+    </row>
+    <row r="55" ht="16.75" spans="1:8">
+      <c r="A55" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="13">
+        <v>10334729</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="4:8">
+      <c r="D56" s="13">
+        <v>10334730</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="4:8">
+      <c r="D57" s="13">
+        <v>10310370</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="C3:J10">
     <sortCondition ref="F3"/>
   </sortState>
-  <mergeCells count="14">
+  <mergeCells count="19">
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D51:D52"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E51:E52"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F51:F52"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G51:G52"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H51:H52"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I38:I39"/>
     <mergeCell ref="J22:J23"/>
